--- a/DOCS RACHA CONTA/Matriz de Rastreabilidade dos Requisitos 1.xlsx
+++ b/DOCS RACHA CONTA/Matriz de Rastreabilidade dos Requisitos 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCUMENTOS RACHA CONTA\DOCS RACHA CONTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Documents\GitHub\Inovando\DOCS RACHA CONTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DF6DF44B-E4A2-40C5-AA59-3AA6634C6170}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="11340" windowHeight="8775"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="11340" windowHeight="8775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -298,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -952,31 +953,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="Accent1 - 20%" xfId="2"/>
-    <cellStyle name="Accent1 - 40%" xfId="3"/>
-    <cellStyle name="Accent1 - 60%" xfId="4"/>
-    <cellStyle name="Accent2 - 20%" xfId="6"/>
-    <cellStyle name="Accent2 - 40%" xfId="7"/>
-    <cellStyle name="Accent2 - 60%" xfId="8"/>
-    <cellStyle name="Accent3 - 20%" xfId="10"/>
-    <cellStyle name="Accent3 - 40%" xfId="11"/>
-    <cellStyle name="Accent3 - 60%" xfId="12"/>
-    <cellStyle name="Accent4 - 20%" xfId="14"/>
-    <cellStyle name="Accent4 - 40%" xfId="15"/>
-    <cellStyle name="Accent4 - 60%" xfId="16"/>
-    <cellStyle name="Accent5 - 20%" xfId="18"/>
-    <cellStyle name="Accent5 - 40%" xfId="19"/>
-    <cellStyle name="Accent5 - 60%" xfId="20"/>
-    <cellStyle name="Accent6 - 20%" xfId="22"/>
-    <cellStyle name="Accent6 - 40%" xfId="23"/>
-    <cellStyle name="Accent6 - 60%" xfId="24"/>
+    <cellStyle name="Accent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent1 - 40%" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1 - 60%" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent2 - 20%" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent2 - 40%" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Accent2 - 60%" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Accent3 - 20%" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent3 - 40%" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent3 - 60%" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent4 - 20%" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Accent4 - 40%" xfId="15" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Accent4 - 60%" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Accent5 - 20%" xfId="18" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Accent5 - 40%" xfId="19" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Accent5 - 60%" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Accent6 - 20%" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Accent6 - 40%" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Accent6 - 60%" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Bom" xfId="31" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Célula de Verificação" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Célula Vinculada" xfId="37" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Emphasis 1" xfId="28"/>
-    <cellStyle name="Emphasis 2" xfId="29"/>
-    <cellStyle name="Emphasis 3" xfId="30"/>
+    <cellStyle name="Emphasis 1" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Emphasis 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Emphasis 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Ênfase1" xfId="1" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Ênfase2" xfId="5" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Ênfase3" xfId="9" builtinId="37" customBuiltin="1"/>
@@ -984,14 +985,14 @@
     <cellStyle name="Ênfase5" xfId="17" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="21" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="36" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="38" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Nota" xfId="39" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="44"/>
+    <cellStyle name="Percent 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Ruim" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="40" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Sheet Title" xfId="41"/>
+    <cellStyle name="Sheet Title" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Texto de Aviso" xfId="43" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="32" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="33" builtinId="17" customBuiltin="1"/>
@@ -1021,7 +1022,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1059,7 +1060,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1094,6 +1095,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1129,9 +1147,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1301,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,13 +4811,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Prioridade</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Tipo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -4798,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
